--- a/data/trans_dic/P6901-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P6901-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P6901-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P6901-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>86,14%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>72,19%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>77,76%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>86,18%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>84,52%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>72,61%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>88,95%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>71,21%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,73%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>72,36%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>80,5%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>78,88%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,81</t>
+          <t>78,13; 91,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,24</t>
+          <t>59,27; 82,09</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,68</t>
+          <t>63,58; 88,25</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 5,3</t>
+          <t>69,78; 95,05</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 4,9</t>
+          <t>69,56; 94,31</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 5,16</t>
+          <t>56,24; 85,94</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 9,99</t>
+          <t>66,44; 100,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 5,3</t>
+          <t>26,62; 98,41</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,33</t>
+          <t>79,3; 90,95</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,02</t>
+          <t>62,09; 80,17</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,74</t>
+          <t>69,25; 88,93</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,7</t>
+          <t>47,2; 92,62</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>76,45%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,94%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>77,88%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>78,83%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,99%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,48%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>90,65%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,81%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>78,36%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>79,48%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,37%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>80,76%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,7</t>
+          <t>71,09; 80,92</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,9</t>
+          <t>69,73; 81,74</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,89</t>
+          <t>71,88; 82,92</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,8</t>
+          <t>73,34; 84,03</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,64</t>
+          <t>76,5; 89,72</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,6</t>
+          <t>77,37; 90,83</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,56</t>
+          <t>84,41; 95,17</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,62</t>
+          <t>77,53; 87,17</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>74,14; 82,46</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>74,95; 83,67</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>78,03; 86,06</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>76,85; 84,0</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>53,1%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>68,57%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>58,92%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>46,87%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,75%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>60,94%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>74,36%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,1%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>58,5%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,79%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>67,21%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>55,66%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,7</t>
+          <t>41,33; 66,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 4,34</t>
+          <t>53,7; 80,9</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,36</t>
+          <t>45,63; 72,09</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,99</t>
+          <t>34,02; 60,86</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,09</t>
+          <t>51,81; 76,35</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 4,55</t>
+          <t>44,25; 74,68</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,82</t>
+          <t>63,25; 82,97</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,45</t>
+          <t>52,42; 71,01</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,45</t>
+          <t>49,23; 66,84</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,25</t>
+          <t>54,18; 74,18</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,55</t>
+          <t>58,6; 75,28</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,98</t>
+          <t>47,51; 63,81</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,07%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>74,23%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>74,4%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>72,94%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>77,95%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>78,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>84,96%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>76,25%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,99%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,72%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>78,44%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>74,62%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>70,82; 79,11</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,61</t>
+          <t>68,82; 79,05</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>69,02; 79,4</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>67,37; 77,47</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,89</t>
+          <t>72,29; 83,31</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,97</t>
+          <t>70,59; 83,34</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,92</t>
+          <t>79,3; 89,87</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>70,31; 80,99</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>72,44; 79,05</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>71,79; 79,24</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>74,23; 81,85</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>70,02; 77,58</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P6901-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P6901-Estudios-trans_dic.xlsx
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>86,18%</t>
+          <t>86,17%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>71,21%</t>
+          <t>74,62%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>78,88%</t>
+          <t>80,84%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>69,78; 95,05</t>
+          <t>69,97; 94,97</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>26,62; 98,41</t>
+          <t>30,72; 97,7</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>47,2; 92,62</t>
+          <t>52,65; 92,54</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>78,83%</t>
+          <t>78,5%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>82,81%</t>
+          <t>84,4%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>80,76%</t>
+          <t>81,44%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>73,34; 84,03</t>
+          <t>72,8; 83,69</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>77,53; 87,17</t>
+          <t>79,13; 90,18</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>76,85; 84,0</t>
+          <t>77,45; 85,67</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>46,87%</t>
+          <t>46,8%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>62,1%</t>
+          <t>62,04%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>55,66%</t>
+          <t>55,43%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>34,02; 60,86</t>
+          <t>33,83; 60,81</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>52,42; 71,01</t>
+          <t>52,57; 71,13</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>47,51; 63,81</t>
+          <t>47,32; 63,82</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>72,94%</t>
+          <t>72,65%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>76,25%</t>
+          <t>77,98%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>74,62%</t>
+          <t>75,38%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>67,37; 77,47</t>
+          <t>67,06; 77,19</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>70,31; 80,99</t>
+          <t>72,59; 84,64</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>70,02; 77,58</t>
+          <t>70,76; 79,21</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P6901-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P6901-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>78,13; 91,61</t>
+          <t>78,89; 91,6</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>59,27; 82,09</t>
+          <t>58,91; 83,15</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>63,58; 88,25</t>
+          <t>63,5; 88,25</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>69,97; 94,97</t>
+          <t>68,19; 95,48</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>69,56; 94,31</t>
+          <t>70,04; 94,71</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>56,24; 85,94</t>
+          <t>56,59; 84,24</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>66,44; 100,0</t>
+          <t>66,54; 100,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>30,72; 97,7</t>
+          <t>34,3; 98,22</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>79,3; 90,95</t>
+          <t>78,93; 90,94</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>62,09; 80,17</t>
+          <t>62,31; 81,02</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>69,25; 88,93</t>
+          <t>69,43; 89,5</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>52,65; 92,54</t>
+          <t>54,7; 93,21</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>71,09; 80,92</t>
+          <t>70,85; 81,21</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>69,73; 81,74</t>
+          <t>68,7; 81,37</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>71,88; 82,92</t>
+          <t>72,05; 83,26</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>72,8; 83,69</t>
+          <t>73,08; 83,98</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>76,5; 89,72</t>
+          <t>75,48; 89,16</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>77,37; 90,83</t>
+          <t>77,04; 91,1</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>84,41; 95,17</t>
+          <t>84,55; 95,11</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>79,13; 90,18</t>
+          <t>79,36; 90,86</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>74,14; 82,46</t>
+          <t>74,07; 82,4</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>74,95; 83,67</t>
+          <t>74,67; 83,75</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>78,03; 86,06</t>
+          <t>78,27; 86,35</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>77,45; 85,67</t>
+          <t>77,16; 85,45</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>41,33; 66,37</t>
+          <t>41,8; 64,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>53,7; 80,9</t>
+          <t>53,55; 81,96</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>45,63; 72,09</t>
+          <t>45,62; 72,24</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>33,83; 60,81</t>
+          <t>34,34; 61,07</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>51,81; 76,35</t>
+          <t>51,95; 75,42</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>44,25; 74,68</t>
+          <t>45,5; 75,26</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>63,25; 82,97</t>
+          <t>63,3; 83,75</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>52,57; 71,13</t>
+          <t>51,03; 70,64</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>49,23; 66,84</t>
+          <t>49,59; 66,89</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>54,18; 74,18</t>
+          <t>54,41; 74,32</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>58,6; 75,28</t>
+          <t>58,5; 74,19</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>47,32; 63,82</t>
+          <t>47,68; 62,68</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>70,82; 79,11</t>
+          <t>70,83; 78,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>68,82; 79,05</t>
+          <t>68,91; 79,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>69,02; 79,4</t>
+          <t>69,31; 79,15</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>67,06; 77,19</t>
+          <t>67,03; 77,59</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>72,29; 83,31</t>
+          <t>71,88; 83,08</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>70,59; 83,34</t>
+          <t>71,79; 83,76</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>79,3; 89,87</t>
+          <t>79,06; 88,9</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>72,59; 84,64</t>
+          <t>72,1; 83,98</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>72,44; 79,05</t>
+          <t>72,42; 79,35</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>71,79; 79,24</t>
+          <t>71,72; 79,12</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>74,23; 81,85</t>
+          <t>74,76; 81,75</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>70,76; 79,21</t>
+          <t>71,56; 79,66</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que su trabajo le afecta de manera que tiene dolores en la espalda</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>95867</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>42426</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>43218</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>25173</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>31751</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>27546</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>16032</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>18644</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>127618</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>69972</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>59250</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>43818</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>87795; 101937</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>34620; 48866</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>35294; 49051</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>19920; 27894</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>26311; 35580</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>21467; 31957</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>11994; 18024</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>8571; 24540</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>117492; 135364</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>60260; 78350</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>51103; 65876</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>29646; 50519</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>255</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>302</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>276</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>443</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>219377</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>168389</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>178634</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>188079</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>98398</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>111577</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>112918</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>201181</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>317774</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>279966</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>291552</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>389260</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>203288; 233037</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>152345; 180427</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>165270; 190977</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>175089; 201190</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>89492; 105719</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>100559; 118913</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>105320; 118473</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>189169; 216576</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>300378; 334149</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>263045; 295028</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>277036; 305622</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>368779; 408398</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>39335</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>31601</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>37433</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>32540</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>41427</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>27541</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>54806</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>56269</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>80762</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>59142</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>92238</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>88809</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>30967; 47819</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>24682; 37775</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>28981; 45891</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>23878; 42460</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>33237; 48254</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>20566; 34013</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>46659; 61732</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>46278; 64067</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>68468; 92351</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>49665; 67840</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>80289; 101811</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>76393; 100426</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>247</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>373</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>501</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>385</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>416</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>620</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>354578</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>242417</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>259285</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>245792</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>171575</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>166663</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>183756</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>276095</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>526154</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>409079</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>443040</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>521887</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>334550; 372165</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>225061; 258703</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>241547; 275825</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>226773; 262490</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>158216; 182869</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>153383; 178952</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>171011; 192299</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>255263; 297339</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>501482; 549421</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>387473; 427464</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>422253; 461718</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>495487; 551541</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>